--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Icam4-Itgam.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Icam4-Itgam.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T25"/>
+  <dimension ref="A1:T31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -534,7 +534,7 @@
         <v>27</v>
       </c>
       <c r="D2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E2">
         <v>3</v>
@@ -543,46 +543,46 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.9029250000000001</v>
+        <v>0.4962273333333334</v>
       </c>
       <c r="H2">
-        <v>2.708775</v>
+        <v>1.488682</v>
       </c>
       <c r="I2">
-        <v>0.05957579827863767</v>
+        <v>0.02715428251396647</v>
       </c>
       <c r="J2">
-        <v>0.05957579827863767</v>
+        <v>0.02715428251396647</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L2">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>0.01571566666666667</v>
+        <v>1.180996</v>
       </c>
       <c r="N2">
-        <v>0.047147</v>
+        <v>3.542988</v>
       </c>
       <c r="O2">
-        <v>4.352450124452221E-05</v>
+        <v>0.002164165694647767</v>
       </c>
       <c r="P2">
-        <v>4.352450124452222E-05</v>
+        <v>0.002164165694647767</v>
       </c>
       <c r="Q2">
-        <v>0.014190068325</v>
+        <v>0.5860424957573334</v>
       </c>
       <c r="R2">
-        <v>0.127710614925</v>
+        <v>5.274382461816</v>
       </c>
       <c r="S2">
-        <v>2.593006906321969E-06</v>
+        <v>5.876636667949995E-05</v>
       </c>
       <c r="T2">
-        <v>2.59300690632197E-06</v>
+        <v>5.876636667949995E-05</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,7 +596,7 @@
         <v>27</v>
       </c>
       <c r="D3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E3">
         <v>3</v>
@@ -605,46 +605,46 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.9029250000000001</v>
+        <v>0.4962273333333334</v>
       </c>
       <c r="H3">
-        <v>2.708775</v>
+        <v>1.488682</v>
       </c>
       <c r="I3">
-        <v>0.05957579827863767</v>
+        <v>0.02715428251396647</v>
       </c>
       <c r="J3">
-        <v>0.05957579827863767</v>
+        <v>0.02715428251396647</v>
       </c>
       <c r="K3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M3">
-        <v>121.5707266666667</v>
+        <v>0.01571566666666667</v>
       </c>
       <c r="N3">
-        <v>364.71218</v>
+        <v>0.047147</v>
       </c>
       <c r="O3">
-        <v>0.3366898367298536</v>
+        <v>2.87988330769278E-05</v>
       </c>
       <c r="P3">
-        <v>0.3366898367298536</v>
+        <v>2.87988330769278E-05</v>
       </c>
       <c r="Q3">
-        <v>109.7692483755</v>
+        <v>0.007798543361555555</v>
       </c>
       <c r="R3">
-        <v>987.9232353795001</v>
+        <v>0.070186890254</v>
       </c>
       <c r="S3">
-        <v>0.02005856579548521</v>
+        <v>7.820116494434598E-07</v>
       </c>
       <c r="T3">
-        <v>0.02005856579548521</v>
+        <v>7.820116494434598E-07</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,7 +658,7 @@
         <v>27</v>
       </c>
       <c r="D4" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E4">
         <v>3</v>
@@ -667,16 +667,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.9029250000000001</v>
+        <v>0.4962273333333334</v>
       </c>
       <c r="H4">
-        <v>2.708775</v>
+        <v>1.488682</v>
       </c>
       <c r="I4">
-        <v>0.05957579827863767</v>
+        <v>0.02715428251396647</v>
       </c>
       <c r="J4">
-        <v>0.05957579827863767</v>
+        <v>0.02715428251396647</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>159.017985</v>
+        <v>209.770696</v>
       </c>
       <c r="N4">
-        <v>477.053955</v>
+        <v>629.312088</v>
       </c>
       <c r="O4">
-        <v>0.4403999291174782</v>
+        <v>0.3844031173903938</v>
       </c>
       <c r="P4">
-        <v>0.4403999291174782</v>
+        <v>0.3844031173903938</v>
       </c>
       <c r="Q4">
-        <v>143.581314106125</v>
+        <v>104.0939530875573</v>
       </c>
       <c r="R4">
-        <v>1292.231826955125</v>
+        <v>936.845577788016</v>
       </c>
       <c r="S4">
-        <v>0.02623717733902921</v>
+        <v>0.01043819084886817</v>
       </c>
       <c r="T4">
-        <v>0.02623717733902921</v>
+        <v>0.01043819084886817</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,7 +720,7 @@
         <v>27</v>
       </c>
       <c r="D5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E5">
         <v>3</v>
@@ -729,16 +729,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.9029250000000001</v>
+        <v>0.4962273333333334</v>
       </c>
       <c r="H5">
-        <v>2.708775</v>
+        <v>1.488682</v>
       </c>
       <c r="I5">
-        <v>0.05957579827863767</v>
+        <v>0.02715428251396647</v>
       </c>
       <c r="J5">
-        <v>0.05957579827863767</v>
+        <v>0.02715428251396647</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -747,33 +747,33 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>80.47189100000001</v>
+        <v>196.552851</v>
       </c>
       <c r="N5">
-        <v>241.415673</v>
+        <v>589.658553</v>
       </c>
       <c r="O5">
-        <v>0.2228667096514236</v>
+        <v>0.3601815224771414</v>
       </c>
       <c r="P5">
-        <v>0.2228667096514236</v>
+        <v>0.3601815224771414</v>
       </c>
       <c r="Q5">
-        <v>72.66008218117501</v>
+        <v>97.53489711079401</v>
       </c>
       <c r="R5">
-        <v>653.9407396305751</v>
+        <v>877.814073997146</v>
       </c>
       <c r="S5">
-        <v>0.01327746213721693</v>
+        <v>0.009780470817654862</v>
       </c>
       <c r="T5">
-        <v>0.01327746213721693</v>
+        <v>0.009780470817654862</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
         <v>26</v>
@@ -782,7 +782,7 @@
         <v>27</v>
       </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E6">
         <v>3</v>
@@ -791,46 +791,46 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.2760703333333334</v>
+        <v>0.4962273333333334</v>
       </c>
       <c r="H6">
-        <v>0.828211</v>
+        <v>1.488682</v>
       </c>
       <c r="I6">
-        <v>0.01821536726680835</v>
+        <v>0.02715428251396647</v>
       </c>
       <c r="J6">
-        <v>0.01821536726680835</v>
+        <v>0.02715428251396647</v>
       </c>
       <c r="K6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L6">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M6">
-        <v>0.01571566666666667</v>
+        <v>138.1847226666667</v>
       </c>
       <c r="N6">
-        <v>0.047147</v>
+        <v>414.554168</v>
       </c>
       <c r="O6">
-        <v>4.352450124452221E-05</v>
+        <v>0.2532223956047401</v>
       </c>
       <c r="P6">
-        <v>4.352450124452222E-05</v>
+        <v>0.2532223956047401</v>
       </c>
       <c r="Q6">
-        <v>0.004338629335222222</v>
+        <v>68.57103643628622</v>
       </c>
       <c r="R6">
-        <v>0.039047664017</v>
+        <v>617.139327926576</v>
       </c>
       <c r="S6">
-        <v>7.92814775273629E-07</v>
+        <v>0.006876072469114495</v>
       </c>
       <c r="T6">
-        <v>7.928147752736293E-07</v>
+        <v>0.006876072469114495</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -844,7 +844,7 @@
         <v>27</v>
       </c>
       <c r="D7" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E7">
         <v>3</v>
@@ -859,40 +859,40 @@
         <v>0.828211</v>
       </c>
       <c r="I7">
-        <v>0.01821536726680835</v>
+        <v>0.01510697078031083</v>
       </c>
       <c r="J7">
-        <v>0.01821536726680835</v>
+        <v>0.01510697078031083</v>
       </c>
       <c r="K7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L7">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M7">
-        <v>121.5707266666667</v>
+        <v>1.180996</v>
       </c>
       <c r="N7">
-        <v>364.71218</v>
+        <v>3.542988</v>
       </c>
       <c r="O7">
-        <v>0.3366898367298536</v>
+        <v>0.002164165694647767</v>
       </c>
       <c r="P7">
-        <v>0.3366898367298536</v>
+        <v>0.002164165694647767</v>
       </c>
       <c r="Q7">
-        <v>33.56207103444223</v>
+        <v>0.3260379593853334</v>
       </c>
       <c r="R7">
-        <v>302.05863930998</v>
+        <v>2.934341634468</v>
       </c>
       <c r="S7">
-        <v>0.006132929031036022</v>
+        <v>3.26939879127949E-05</v>
       </c>
       <c r="T7">
-        <v>0.006132929031036023</v>
+        <v>3.26939879127949E-05</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,7 +906,7 @@
         <v>27</v>
       </c>
       <c r="D8" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E8">
         <v>3</v>
@@ -921,40 +921,40 @@
         <v>0.828211</v>
       </c>
       <c r="I8">
-        <v>0.01821536726680835</v>
+        <v>0.01510697078031083</v>
       </c>
       <c r="J8">
-        <v>0.01821536726680835</v>
+        <v>0.01510697078031083</v>
       </c>
       <c r="K8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L8">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M8">
-        <v>159.017985</v>
+        <v>0.01571566666666667</v>
       </c>
       <c r="N8">
-        <v>477.053955</v>
+        <v>0.047147</v>
       </c>
       <c r="O8">
-        <v>0.4403999291174782</v>
+        <v>2.87988330769278E-05</v>
       </c>
       <c r="P8">
-        <v>0.4403999291174782</v>
+        <v>2.87988330769278E-05</v>
       </c>
       <c r="Q8">
-        <v>43.90014812494501</v>
+        <v>0.004338629335222222</v>
       </c>
       <c r="R8">
-        <v>395.1013331245051</v>
+        <v>0.039047664017</v>
       </c>
       <c r="S8">
-        <v>0.008022046453151228</v>
+        <v>4.350631298001973E-07</v>
       </c>
       <c r="T8">
-        <v>0.00802204645315123</v>
+        <v>4.350631298001973E-07</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,7 +968,7 @@
         <v>27</v>
       </c>
       <c r="D9" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E9">
         <v>3</v>
@@ -983,10 +983,10 @@
         <v>0.828211</v>
       </c>
       <c r="I9">
-        <v>0.01821536726680835</v>
+        <v>0.01510697078031083</v>
       </c>
       <c r="J9">
-        <v>0.01821536726680835</v>
+        <v>0.01510697078031083</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -995,33 +995,33 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>80.47189100000001</v>
+        <v>209.770696</v>
       </c>
       <c r="N9">
-        <v>241.415673</v>
+        <v>629.312088</v>
       </c>
       <c r="O9">
-        <v>0.2228667096514236</v>
+        <v>0.3844031173903938</v>
       </c>
       <c r="P9">
-        <v>0.2228667096514236</v>
+        <v>0.3844031173903938</v>
       </c>
       <c r="Q9">
-        <v>22.21590177233367</v>
+        <v>57.91146596828534</v>
       </c>
       <c r="R9">
-        <v>199.943115951003</v>
+        <v>521.203193714568</v>
       </c>
       <c r="S9">
-        <v>0.004059598967845822</v>
+        <v>0.005807166662277074</v>
       </c>
       <c r="T9">
-        <v>0.004059598967845822</v>
+        <v>0.005807166662277073</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B10" t="s">
         <v>26</v>
@@ -1030,7 +1030,7 @@
         <v>27</v>
       </c>
       <c r="D10" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E10">
         <v>3</v>
@@ -1039,51 +1039,51 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.4985573333333334</v>
+        <v>0.2760703333333334</v>
       </c>
       <c r="H10">
-        <v>1.495672</v>
+        <v>0.828211</v>
       </c>
       <c r="I10">
-        <v>0.03289525832267595</v>
+        <v>0.01510697078031083</v>
       </c>
       <c r="J10">
-        <v>0.03289525832267596</v>
+        <v>0.01510697078031083</v>
       </c>
       <c r="K10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L10">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M10">
-        <v>0.01571566666666667</v>
+        <v>196.552851</v>
       </c>
       <c r="N10">
-        <v>0.047147</v>
+        <v>589.658553</v>
       </c>
       <c r="O10">
-        <v>4.352450124452221E-05</v>
+        <v>0.3601815224771414</v>
       </c>
       <c r="P10">
-        <v>4.352450124452222E-05</v>
+        <v>0.3601815224771414</v>
       </c>
       <c r="Q10">
-        <v>0.007835160864888889</v>
+        <v>54.262411093187</v>
       </c>
       <c r="R10">
-        <v>0.07051644778400001</v>
+        <v>488.361699838683</v>
       </c>
       <c r="S10">
-        <v>1.431749711804189E-06</v>
+        <v>0.005441251735670043</v>
       </c>
       <c r="T10">
-        <v>1.43174971180419E-06</v>
+        <v>0.005441251735670042</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B11" t="s">
         <v>26</v>
@@ -1092,7 +1092,7 @@
         <v>27</v>
       </c>
       <c r="D11" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="E11">
         <v>3</v>
@@ -1101,16 +1101,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>0.4985573333333334</v>
+        <v>0.2760703333333334</v>
       </c>
       <c r="H11">
-        <v>1.495672</v>
+        <v>0.828211</v>
       </c>
       <c r="I11">
-        <v>0.03289525832267595</v>
+        <v>0.01510697078031083</v>
       </c>
       <c r="J11">
-        <v>0.03289525832267596</v>
+        <v>0.01510697078031083</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>121.5707266666667</v>
+        <v>138.1847226666667</v>
       </c>
       <c r="N11">
-        <v>364.71218</v>
+        <v>414.554168</v>
       </c>
       <c r="O11">
-        <v>0.3366898367298536</v>
+        <v>0.2532223956047401</v>
       </c>
       <c r="P11">
-        <v>0.3366898367298536</v>
+        <v>0.2532223956047401</v>
       </c>
       <c r="Q11">
-        <v>60.60997729832889</v>
+        <v>38.14870244816089</v>
       </c>
       <c r="R11">
-        <v>545.48979568496</v>
+        <v>343.338322033448</v>
       </c>
       <c r="S11">
-        <v>0.01107549915384813</v>
+        <v>0.003825423331321119</v>
       </c>
       <c r="T11">
-        <v>0.01107549915384813</v>
+        <v>0.003825423331321119</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1154,7 +1154,7 @@
         <v>27</v>
       </c>
       <c r="D12" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E12">
         <v>3</v>
@@ -1163,46 +1163,46 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.4985573333333334</v>
+        <v>1.001974666666667</v>
       </c>
       <c r="H12">
-        <v>1.495672</v>
+        <v>3.005924</v>
       </c>
       <c r="I12">
-        <v>0.03289525832267595</v>
+        <v>0.05482951329532577</v>
       </c>
       <c r="J12">
-        <v>0.03289525832267596</v>
+        <v>0.05482951329532576</v>
       </c>
       <c r="K12">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L12">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M12">
-        <v>159.017985</v>
+        <v>1.180996</v>
       </c>
       <c r="N12">
-        <v>477.053955</v>
+        <v>3.542988</v>
       </c>
       <c r="O12">
-        <v>0.4403999291174782</v>
+        <v>0.002164165694647767</v>
       </c>
       <c r="P12">
-        <v>0.4403999291174782</v>
+        <v>0.002164165694647767</v>
       </c>
       <c r="Q12">
-        <v>79.27958255364001</v>
+        <v>1.183328073434667</v>
       </c>
       <c r="R12">
-        <v>713.5162429827601</v>
+        <v>10.649952660912</v>
       </c>
       <c r="S12">
-        <v>0.01448706943360763</v>
+        <v>0.0001186601517279777</v>
       </c>
       <c r="T12">
-        <v>0.01448706943360763</v>
+        <v>0.0001186601517279776</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1216,7 +1216,7 @@
         <v>27</v>
       </c>
       <c r="D13" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E13">
         <v>3</v>
@@ -1225,51 +1225,51 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>0.4985573333333334</v>
+        <v>1.001974666666667</v>
       </c>
       <c r="H13">
-        <v>1.495672</v>
+        <v>3.005924</v>
       </c>
       <c r="I13">
-        <v>0.03289525832267595</v>
+        <v>0.05482951329532577</v>
       </c>
       <c r="J13">
-        <v>0.03289525832267596</v>
+        <v>0.05482951329532576</v>
       </c>
       <c r="K13">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L13">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M13">
-        <v>80.47189100000001</v>
+        <v>0.01571566666666667</v>
       </c>
       <c r="N13">
-        <v>241.415673</v>
+        <v>0.047147</v>
       </c>
       <c r="O13">
-        <v>0.2228667096514236</v>
+        <v>2.87988330769278E-05</v>
       </c>
       <c r="P13">
-        <v>0.2228667096514236</v>
+        <v>2.87988330769278E-05</v>
       </c>
       <c r="Q13">
-        <v>40.11985138525068</v>
+        <v>0.01574669986977778</v>
       </c>
       <c r="R13">
-        <v>361.0786624672561</v>
+        <v>0.141720298828</v>
       </c>
       <c r="S13">
-        <v>0.007331257985508398</v>
+        <v>1.57902600108128E-06</v>
       </c>
       <c r="T13">
-        <v>0.007331257985508399</v>
+        <v>1.57902600108128E-06</v>
       </c>
     </row>
     <row r="14" spans="1:20">
       <c r="A14" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B14" t="s">
         <v>26</v>
@@ -1278,7 +1278,7 @@
         <v>27</v>
       </c>
       <c r="D14" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E14">
         <v>3</v>
@@ -1287,51 +1287,51 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>0.17474</v>
+        <v>1.001974666666667</v>
       </c>
       <c r="H14">
-        <v>0.52422</v>
+        <v>3.005924</v>
       </c>
       <c r="I14">
-        <v>0.01152950133312196</v>
+        <v>0.05482951329532577</v>
       </c>
       <c r="J14">
-        <v>0.01152950133312196</v>
+        <v>0.05482951329532576</v>
       </c>
       <c r="K14">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L14">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M14">
-        <v>0.01571566666666667</v>
+        <v>209.770696</v>
       </c>
       <c r="N14">
-        <v>0.047147</v>
+        <v>629.312088</v>
       </c>
       <c r="O14">
-        <v>4.352450124452221E-05</v>
+        <v>0.3844031173903938</v>
       </c>
       <c r="P14">
-        <v>4.352450124452222E-05</v>
+        <v>0.3844031173903938</v>
       </c>
       <c r="Q14">
-        <v>0.002746155593333333</v>
+        <v>210.1849232010347</v>
       </c>
       <c r="R14">
-        <v>0.02471540034</v>
+        <v>1891.664308809312</v>
       </c>
       <c r="S14">
-        <v>5.018157951221873E-07</v>
+        <v>0.02107663583572127</v>
       </c>
       <c r="T14">
-        <v>5.018157951221874E-07</v>
+        <v>0.02107663583572127</v>
       </c>
     </row>
     <row r="15" spans="1:20">
       <c r="A15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B15" t="s">
         <v>26</v>
@@ -1340,7 +1340,7 @@
         <v>27</v>
       </c>
       <c r="D15" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E15">
         <v>3</v>
@@ -1349,16 +1349,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>0.17474</v>
+        <v>1.001974666666667</v>
       </c>
       <c r="H15">
-        <v>0.52422</v>
+        <v>3.005924</v>
       </c>
       <c r="I15">
-        <v>0.01152950133312196</v>
+        <v>0.05482951329532577</v>
       </c>
       <c r="J15">
-        <v>0.01152950133312196</v>
+        <v>0.05482951329532576</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,33 +1367,33 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>121.5707266666667</v>
+        <v>196.552851</v>
       </c>
       <c r="N15">
-        <v>364.71218</v>
+        <v>589.658553</v>
       </c>
       <c r="O15">
-        <v>0.3366898367298536</v>
+        <v>0.3601815224771414</v>
       </c>
       <c r="P15">
-        <v>0.3366898367298536</v>
+        <v>0.3601815224771414</v>
       </c>
       <c r="Q15">
-        <v>21.24326877773333</v>
+        <v>196.940977363108</v>
       </c>
       <c r="R15">
-        <v>191.1894189996</v>
+        <v>1772.468796267972</v>
       </c>
       <c r="S15">
-        <v>0.003881865921425462</v>
+        <v>0.0197485775753911</v>
       </c>
       <c r="T15">
-        <v>0.003881865921425463</v>
+        <v>0.0197485775753911</v>
       </c>
     </row>
     <row r="16" spans="1:20">
       <c r="A16" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B16" t="s">
         <v>26</v>
@@ -1402,7 +1402,7 @@
         <v>27</v>
       </c>
       <c r="D16" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E16">
         <v>3</v>
@@ -1411,16 +1411,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>0.17474</v>
+        <v>1.001974666666667</v>
       </c>
       <c r="H16">
-        <v>0.52422</v>
+        <v>3.005924</v>
       </c>
       <c r="I16">
-        <v>0.01152950133312196</v>
+        <v>0.05482951329532577</v>
       </c>
       <c r="J16">
-        <v>0.01152950133312196</v>
+        <v>0.05482951329532576</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>159.017985</v>
+        <v>138.1847226666667</v>
       </c>
       <c r="N16">
-        <v>477.053955</v>
+        <v>414.554168</v>
       </c>
       <c r="O16">
-        <v>0.4403999291174782</v>
+        <v>0.2532223956047401</v>
       </c>
       <c r="P16">
-        <v>0.4403999291174782</v>
+        <v>0.2532223956047401</v>
       </c>
       <c r="Q16">
-        <v>27.7868026989</v>
+        <v>138.4575914323591</v>
       </c>
       <c r="R16">
-        <v>250.0812242901</v>
+        <v>1246.118322891232</v>
       </c>
       <c r="S16">
-        <v>0.005077591569866782</v>
+        <v>0.01388406070648434</v>
       </c>
       <c r="T16">
-        <v>0.005077591569866782</v>
+        <v>0.01388406070648434</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1464,60 +1464,60 @@
         <v>27</v>
       </c>
       <c r="D17" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E17">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F17">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G17">
-        <v>0.17474</v>
+        <v>0.044849</v>
       </c>
       <c r="H17">
-        <v>0.52422</v>
+        <v>0.134547</v>
       </c>
       <c r="I17">
-        <v>0.01152950133312196</v>
+        <v>0.002454202609695453</v>
       </c>
       <c r="J17">
-        <v>0.01152950133312196</v>
+        <v>0.002454202609695453</v>
       </c>
       <c r="K17">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L17">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M17">
-        <v>80.47189100000001</v>
+        <v>1.180996</v>
       </c>
       <c r="N17">
-        <v>241.415673</v>
+        <v>3.542988</v>
       </c>
       <c r="O17">
-        <v>0.2228667096514236</v>
+        <v>0.002164165694647767</v>
       </c>
       <c r="P17">
-        <v>0.2228667096514236</v>
+        <v>0.002164165694647767</v>
       </c>
       <c r="Q17">
-        <v>14.06165823334</v>
+        <v>0.05296648960399999</v>
       </c>
       <c r="R17">
-        <v>126.55492410006</v>
+        <v>0.476698406436</v>
       </c>
       <c r="S17">
-        <v>0.002569542026034593</v>
+        <v>5.311301095617923E-06</v>
       </c>
       <c r="T17">
-        <v>0.002569542026034593</v>
+        <v>5.311301095617923E-06</v>
       </c>
     </row>
     <row r="18" spans="1:20">
       <c r="A18" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B18" t="s">
         <v>26</v>
@@ -1529,22 +1529,22 @@
         <v>21</v>
       </c>
       <c r="E18">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F18">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G18">
-        <v>12.66757666666667</v>
+        <v>0.044849</v>
       </c>
       <c r="H18">
-        <v>38.00273</v>
+        <v>0.134547</v>
       </c>
       <c r="I18">
-        <v>0.8358180271589674</v>
+        <v>0.002454202609695453</v>
       </c>
       <c r="J18">
-        <v>0.8358180271589675</v>
+        <v>0.002454202609695453</v>
       </c>
       <c r="K18">
         <v>2</v>
@@ -1559,27 +1559,27 @@
         <v>0.047147</v>
       </c>
       <c r="O18">
-        <v>4.352450124452221E-05</v>
+        <v>2.87988330769278E-05</v>
       </c>
       <c r="P18">
-        <v>4.352450124452222E-05</v>
+        <v>2.87988330769278E-05</v>
       </c>
       <c r="Q18">
-        <v>0.1990794123677778</v>
+        <v>0.0007048319343333333</v>
       </c>
       <c r="R18">
-        <v>1.79171471131</v>
+        <v>0.006343487409000001</v>
       </c>
       <c r="S18">
-        <v>3.637856276327458E-05</v>
+        <v>7.067817129357994E-08</v>
       </c>
       <c r="T18">
-        <v>3.637856276327458E-05</v>
+        <v>7.067817129357994E-08</v>
       </c>
     </row>
     <row r="19" spans="1:20">
       <c r="A19" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B19" t="s">
         <v>26</v>
@@ -1591,22 +1591,22 @@
         <v>22</v>
       </c>
       <c r="E19">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F19">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G19">
-        <v>12.66757666666667</v>
+        <v>0.044849</v>
       </c>
       <c r="H19">
-        <v>38.00273</v>
+        <v>0.134547</v>
       </c>
       <c r="I19">
-        <v>0.8358180271589674</v>
+        <v>0.002454202609695453</v>
       </c>
       <c r="J19">
-        <v>0.8358180271589675</v>
+        <v>0.002454202609695453</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,33 +1615,33 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>121.5707266666667</v>
+        <v>209.770696</v>
       </c>
       <c r="N19">
-        <v>364.71218</v>
+        <v>629.312088</v>
       </c>
       <c r="O19">
-        <v>0.3366898367298536</v>
+        <v>0.3844031173903938</v>
       </c>
       <c r="P19">
-        <v>0.3366898367298536</v>
+        <v>0.3844031173903938</v>
       </c>
       <c r="Q19">
-        <v>1540.006500472378</v>
+        <v>9.408005944904001</v>
       </c>
       <c r="R19">
-        <v>13860.0585042514</v>
+        <v>84.672053504136</v>
       </c>
       <c r="S19">
-        <v>0.2814114351000211</v>
+        <v>0.0009434031338745723</v>
       </c>
       <c r="T19">
-        <v>0.2814114351000211</v>
+        <v>0.0009434031338745723</v>
       </c>
     </row>
     <row r="20" spans="1:20">
       <c r="A20" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B20" t="s">
         <v>26</v>
@@ -1653,22 +1653,22 @@
         <v>24</v>
       </c>
       <c r="E20">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F20">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G20">
-        <v>12.66757666666667</v>
+        <v>0.044849</v>
       </c>
       <c r="H20">
-        <v>38.00273</v>
+        <v>0.134547</v>
       </c>
       <c r="I20">
-        <v>0.8358180271589674</v>
+        <v>0.002454202609695453</v>
       </c>
       <c r="J20">
-        <v>0.8358180271589675</v>
+        <v>0.002454202609695453</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1677,33 +1677,33 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>159.017985</v>
+        <v>196.552851</v>
       </c>
       <c r="N20">
-        <v>477.053955</v>
+        <v>589.658553</v>
       </c>
       <c r="O20">
-        <v>0.4403999291174782</v>
+        <v>0.3601815224771414</v>
       </c>
       <c r="P20">
-        <v>0.4403999291174782</v>
+        <v>0.3601815224771414</v>
       </c>
       <c r="Q20">
-        <v>2014.37251636635</v>
+        <v>8.815198814499</v>
       </c>
       <c r="R20">
-        <v>18129.35264729715</v>
+        <v>79.336789330491</v>
       </c>
       <c r="S20">
-        <v>0.3680941999159197</v>
+        <v>0.000883958432427482</v>
       </c>
       <c r="T20">
-        <v>0.3680941999159197</v>
+        <v>0.000883958432427482</v>
       </c>
     </row>
     <row r="21" spans="1:20">
       <c r="A21" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B21" t="s">
         <v>26</v>
@@ -1715,22 +1715,22 @@
         <v>25</v>
       </c>
       <c r="E21">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F21">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G21">
-        <v>12.66757666666667</v>
+        <v>0.044849</v>
       </c>
       <c r="H21">
-        <v>38.00273</v>
+        <v>0.134547</v>
       </c>
       <c r="I21">
-        <v>0.8358180271589674</v>
+        <v>0.002454202609695453</v>
       </c>
       <c r="J21">
-        <v>0.8358180271589675</v>
+        <v>0.002454202609695453</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1739,33 +1739,33 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>80.47189100000001</v>
+        <v>138.1847226666667</v>
       </c>
       <c r="N21">
-        <v>241.415673</v>
+        <v>414.554168</v>
       </c>
       <c r="O21">
-        <v>0.2228667096514236</v>
+        <v>0.2532223956047401</v>
       </c>
       <c r="P21">
-        <v>0.2228667096514236</v>
+        <v>0.2532223956047401</v>
       </c>
       <c r="Q21">
-        <v>1019.383848754144</v>
+        <v>6.197446626877333</v>
       </c>
       <c r="R21">
-        <v>9174.454638787291</v>
+        <v>55.777019641896</v>
       </c>
       <c r="S21">
-        <v>0.1862760135802633</v>
+        <v>0.0006214590641264877</v>
       </c>
       <c r="T21">
-        <v>0.1862760135802633</v>
+        <v>0.0006214590641264877</v>
       </c>
     </row>
     <row r="22" spans="1:20">
       <c r="A22" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B22" t="s">
         <v>26</v>
@@ -1774,7 +1774,7 @@
         <v>27</v>
       </c>
       <c r="D22" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E22">
         <v>3</v>
@@ -1783,51 +1783,51 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>0.6360333333333333</v>
+        <v>16.10040733333333</v>
       </c>
       <c r="H22">
-        <v>1.9081</v>
+        <v>48.301222</v>
       </c>
       <c r="I22">
-        <v>0.04196604763978866</v>
+        <v>0.8810377420817962</v>
       </c>
       <c r="J22">
-        <v>0.04196604763978867</v>
+        <v>0.8810377420817962</v>
       </c>
       <c r="K22">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L22">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M22">
-        <v>0.01571566666666667</v>
+        <v>1.180996</v>
       </c>
       <c r="N22">
-        <v>0.047147</v>
+        <v>3.542988</v>
       </c>
       <c r="O22">
-        <v>4.352450124452221E-05</v>
+        <v>0.002164165694647767</v>
       </c>
       <c r="P22">
-        <v>4.352450124452222E-05</v>
+        <v>0.002164165694647767</v>
       </c>
       <c r="Q22">
-        <v>0.009995687855555555</v>
+        <v>19.01451665903733</v>
       </c>
       <c r="R22">
-        <v>0.08996119070000001</v>
+        <v>171.130649931336</v>
       </c>
       <c r="S22">
-        <v>1.82655129272566E-06</v>
+        <v>0.00190671165710335</v>
       </c>
       <c r="T22">
-        <v>1.82655129272566E-06</v>
+        <v>0.00190671165710335</v>
       </c>
     </row>
     <row r="23" spans="1:20">
       <c r="A23" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B23" t="s">
         <v>26</v>
@@ -1836,7 +1836,7 @@
         <v>27</v>
       </c>
       <c r="D23" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E23">
         <v>3</v>
@@ -1845,51 +1845,51 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>0.6360333333333333</v>
+        <v>16.10040733333333</v>
       </c>
       <c r="H23">
-        <v>1.9081</v>
+        <v>48.301222</v>
       </c>
       <c r="I23">
-        <v>0.04196604763978866</v>
+        <v>0.8810377420817962</v>
       </c>
       <c r="J23">
-        <v>0.04196604763978867</v>
+        <v>0.8810377420817962</v>
       </c>
       <c r="K23">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L23">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M23">
-        <v>121.5707266666667</v>
+        <v>0.01571566666666667</v>
       </c>
       <c r="N23">
-        <v>364.71218</v>
+        <v>0.047147</v>
       </c>
       <c r="O23">
-        <v>0.3366898367298536</v>
+        <v>2.87988330769278E-05</v>
       </c>
       <c r="P23">
-        <v>0.3366898367298536</v>
+        <v>2.87988330769278E-05</v>
       </c>
       <c r="Q23">
-        <v>77.32303451755556</v>
+        <v>0.2530286348482222</v>
       </c>
       <c r="R23">
-        <v>695.907310658</v>
+        <v>2.277257713634</v>
       </c>
       <c r="S23">
-        <v>0.0141295417280377</v>
+        <v>2.537285886868702E-05</v>
       </c>
       <c r="T23">
-        <v>0.01412954172803771</v>
+        <v>2.537285886868702E-05</v>
       </c>
     </row>
     <row r="24" spans="1:20">
       <c r="A24" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B24" t="s">
         <v>26</v>
@@ -1898,7 +1898,7 @@
         <v>27</v>
       </c>
       <c r="D24" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E24">
         <v>3</v>
@@ -1907,16 +1907,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>0.6360333333333333</v>
+        <v>16.10040733333333</v>
       </c>
       <c r="H24">
-        <v>1.9081</v>
+        <v>48.301222</v>
       </c>
       <c r="I24">
-        <v>0.04196604763978866</v>
+        <v>0.8810377420817962</v>
       </c>
       <c r="J24">
-        <v>0.04196604763978867</v>
+        <v>0.8810377420817962</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1925,90 +1925,462 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>159.017985</v>
+        <v>209.770696</v>
       </c>
       <c r="N24">
-        <v>477.053955</v>
+        <v>629.312088</v>
       </c>
       <c r="O24">
-        <v>0.4403999291174782</v>
+        <v>0.3844031173903938</v>
       </c>
       <c r="P24">
-        <v>0.4403999291174782</v>
+        <v>0.3844031173903938</v>
       </c>
       <c r="Q24">
-        <v>101.1407390595</v>
+        <v>3377.393652196838</v>
       </c>
       <c r="R24">
-        <v>910.2666515355002</v>
+        <v>30396.54286977153</v>
       </c>
       <c r="S24">
-        <v>0.01848184440590364</v>
+        <v>0.3386736545948362</v>
       </c>
       <c r="T24">
-        <v>0.01848184440590364</v>
+        <v>0.3386736545948362</v>
       </c>
     </row>
     <row r="25" spans="1:20">
       <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25" t="s">
+        <v>27</v>
+      </c>
+      <c r="D25" t="s">
+        <v>24</v>
+      </c>
+      <c r="E25">
+        <v>3</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>16.10040733333333</v>
+      </c>
+      <c r="H25">
+        <v>48.301222</v>
+      </c>
+      <c r="I25">
+        <v>0.8810377420817962</v>
+      </c>
+      <c r="J25">
+        <v>0.8810377420817962</v>
+      </c>
+      <c r="K25">
+        <v>3</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>196.552851</v>
+      </c>
+      <c r="N25">
+        <v>589.658553</v>
+      </c>
+      <c r="O25">
+        <v>0.3601815224771414</v>
+      </c>
+      <c r="P25">
+        <v>0.3601815224771414</v>
+      </c>
+      <c r="Q25">
+        <v>3164.580963627974</v>
+      </c>
+      <c r="R25">
+        <v>28481.22867265176</v>
+      </c>
+      <c r="S25">
+        <v>0.3173335153028444</v>
+      </c>
+      <c r="T25">
+        <v>0.3173335153028444</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>26</v>
+      </c>
+      <c r="C26" t="s">
+        <v>27</v>
+      </c>
+      <c r="D26" t="s">
         <v>25</v>
       </c>
-      <c r="B25" t="s">
-        <v>26</v>
-      </c>
-      <c r="C25" t="s">
-        <v>27</v>
-      </c>
-      <c r="D25" t="s">
+      <c r="E26">
+        <v>3</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>16.10040733333333</v>
+      </c>
+      <c r="H26">
+        <v>48.301222</v>
+      </c>
+      <c r="I26">
+        <v>0.8810377420817962</v>
+      </c>
+      <c r="J26">
+        <v>0.8810377420817962</v>
+      </c>
+      <c r="K26">
+        <v>3</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>138.1847226666667</v>
+      </c>
+      <c r="N26">
+        <v>414.554168</v>
+      </c>
+      <c r="O26">
+        <v>0.2532223956047401</v>
+      </c>
+      <c r="P26">
+        <v>0.2532223956047401</v>
+      </c>
+      <c r="Q26">
+        <v>2224.830322177033</v>
+      </c>
+      <c r="R26">
+        <v>20023.47289959329</v>
+      </c>
+      <c r="S26">
+        <v>0.2230984876681436</v>
+      </c>
+      <c r="T26">
+        <v>0.2230984876681436</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
+      <c r="A27" t="s">
         <v>25</v>
       </c>
-      <c r="E25">
-        <v>3</v>
-      </c>
-      <c r="F25">
-        <v>1</v>
-      </c>
-      <c r="G25">
-        <v>0.6360333333333333</v>
-      </c>
-      <c r="H25">
-        <v>1.9081</v>
-      </c>
-      <c r="I25">
-        <v>0.04196604763978866</v>
-      </c>
-      <c r="J25">
-        <v>0.04196604763978867</v>
-      </c>
-      <c r="K25">
-        <v>3</v>
-      </c>
-      <c r="L25">
-        <v>1</v>
-      </c>
-      <c r="M25">
-        <v>80.47189100000001</v>
-      </c>
-      <c r="N25">
-        <v>241.415673</v>
-      </c>
-      <c r="O25">
-        <v>0.2228667096514236</v>
-      </c>
-      <c r="P25">
-        <v>0.2228667096514236</v>
-      </c>
-      <c r="Q25">
-        <v>51.18280507236668</v>
-      </c>
-      <c r="R25">
-        <v>460.6452456513001</v>
-      </c>
-      <c r="S25">
-        <v>0.009352834954554591</v>
-      </c>
-      <c r="T25">
-        <v>0.009352834954554591</v>
+      <c r="B27" t="s">
+        <v>26</v>
+      </c>
+      <c r="C27" t="s">
+        <v>27</v>
+      </c>
+      <c r="D27" t="s">
+        <v>20</v>
+      </c>
+      <c r="E27">
+        <v>3</v>
+      </c>
+      <c r="F27">
+        <v>1</v>
+      </c>
+      <c r="G27">
+        <v>0.3548386666666667</v>
+      </c>
+      <c r="H27">
+        <v>1.064516</v>
+      </c>
+      <c r="I27">
+        <v>0.0194172887189054</v>
+      </c>
+      <c r="J27">
+        <v>0.0194172887189054</v>
+      </c>
+      <c r="K27">
+        <v>1</v>
+      </c>
+      <c r="L27">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M27">
+        <v>1.180996</v>
+      </c>
+      <c r="N27">
+        <v>3.542988</v>
+      </c>
+      <c r="O27">
+        <v>0.002164165694647767</v>
+      </c>
+      <c r="P27">
+        <v>0.002164165694647767</v>
+      </c>
+      <c r="Q27">
+        <v>0.4190630459786667</v>
+      </c>
+      <c r="R27">
+        <v>3.771567413808</v>
+      </c>
+      <c r="S27">
+        <v>4.202223012852616E-05</v>
+      </c>
+      <c r="T27">
+        <v>4.202223012852616E-05</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
+      <c r="A28" t="s">
+        <v>25</v>
+      </c>
+      <c r="B28" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28" t="s">
+        <v>27</v>
+      </c>
+      <c r="D28" t="s">
+        <v>21</v>
+      </c>
+      <c r="E28">
+        <v>3</v>
+      </c>
+      <c r="F28">
+        <v>1</v>
+      </c>
+      <c r="G28">
+        <v>0.3548386666666667</v>
+      </c>
+      <c r="H28">
+        <v>1.064516</v>
+      </c>
+      <c r="I28">
+        <v>0.0194172887189054</v>
+      </c>
+      <c r="J28">
+        <v>0.0194172887189054</v>
+      </c>
+      <c r="K28">
+        <v>2</v>
+      </c>
+      <c r="L28">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M28">
+        <v>0.01571566666666667</v>
+      </c>
+      <c r="N28">
+        <v>0.047147</v>
+      </c>
+      <c r="O28">
+        <v>2.87988330769278E-05</v>
+      </c>
+      <c r="P28">
+        <v>2.87988330769278E-05</v>
+      </c>
+      <c r="Q28">
+        <v>0.005576526205777778</v>
+      </c>
+      <c r="R28">
+        <v>0.050188735852</v>
+      </c>
+      <c r="S28">
+        <v>5.591952566222699E-07</v>
+      </c>
+      <c r="T28">
+        <v>5.591952566222699E-07</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
+      <c r="A29" t="s">
+        <v>25</v>
+      </c>
+      <c r="B29" t="s">
+        <v>26</v>
+      </c>
+      <c r="C29" t="s">
+        <v>27</v>
+      </c>
+      <c r="D29" t="s">
+        <v>22</v>
+      </c>
+      <c r="E29">
+        <v>3</v>
+      </c>
+      <c r="F29">
+        <v>1</v>
+      </c>
+      <c r="G29">
+        <v>0.3548386666666667</v>
+      </c>
+      <c r="H29">
+        <v>1.064516</v>
+      </c>
+      <c r="I29">
+        <v>0.0194172887189054</v>
+      </c>
+      <c r="J29">
+        <v>0.0194172887189054</v>
+      </c>
+      <c r="K29">
+        <v>3</v>
+      </c>
+      <c r="L29">
+        <v>1</v>
+      </c>
+      <c r="M29">
+        <v>209.770696</v>
+      </c>
+      <c r="N29">
+        <v>629.312088</v>
+      </c>
+      <c r="O29">
+        <v>0.3844031173903938</v>
+      </c>
+      <c r="P29">
+        <v>0.3844031173903938</v>
+      </c>
+      <c r="Q29">
+        <v>74.43475407437867</v>
+      </c>
+      <c r="R29">
+        <v>669.912786669408</v>
+      </c>
+      <c r="S29">
+        <v>0.007464066314816564</v>
+      </c>
+      <c r="T29">
+        <v>0.007464066314816564</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
+      <c r="A30" t="s">
+        <v>25</v>
+      </c>
+      <c r="B30" t="s">
+        <v>26</v>
+      </c>
+      <c r="C30" t="s">
+        <v>27</v>
+      </c>
+      <c r="D30" t="s">
+        <v>24</v>
+      </c>
+      <c r="E30">
+        <v>3</v>
+      </c>
+      <c r="F30">
+        <v>1</v>
+      </c>
+      <c r="G30">
+        <v>0.3548386666666667</v>
+      </c>
+      <c r="H30">
+        <v>1.064516</v>
+      </c>
+      <c r="I30">
+        <v>0.0194172887189054</v>
+      </c>
+      <c r="J30">
+        <v>0.0194172887189054</v>
+      </c>
+      <c r="K30">
+        <v>3</v>
+      </c>
+      <c r="L30">
+        <v>1</v>
+      </c>
+      <c r="M30">
+        <v>196.552851</v>
+      </c>
+      <c r="N30">
+        <v>589.658553</v>
+      </c>
+      <c r="O30">
+        <v>0.3601815224771414</v>
+      </c>
+      <c r="P30">
+        <v>0.3601815224771414</v>
+      </c>
+      <c r="Q30">
+        <v>69.74455157837201</v>
+      </c>
+      <c r="R30">
+        <v>627.700964205348</v>
+      </c>
+      <c r="S30">
+        <v>0.006993748613153569</v>
+      </c>
+      <c r="T30">
+        <v>0.006993748613153569</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20">
+      <c r="A31" t="s">
+        <v>25</v>
+      </c>
+      <c r="B31" t="s">
+        <v>26</v>
+      </c>
+      <c r="C31" t="s">
+        <v>27</v>
+      </c>
+      <c r="D31" t="s">
+        <v>25</v>
+      </c>
+      <c r="E31">
+        <v>3</v>
+      </c>
+      <c r="F31">
+        <v>1</v>
+      </c>
+      <c r="G31">
+        <v>0.3548386666666667</v>
+      </c>
+      <c r="H31">
+        <v>1.064516</v>
+      </c>
+      <c r="I31">
+        <v>0.0194172887189054</v>
+      </c>
+      <c r="J31">
+        <v>0.0194172887189054</v>
+      </c>
+      <c r="K31">
+        <v>3</v>
+      </c>
+      <c r="L31">
+        <v>1</v>
+      </c>
+      <c r="M31">
+        <v>138.1847226666667</v>
+      </c>
+      <c r="N31">
+        <v>414.554168</v>
+      </c>
+      <c r="O31">
+        <v>0.2532223956047401</v>
+      </c>
+      <c r="P31">
+        <v>0.2532223956047401</v>
+      </c>
+      <c r="Q31">
+        <v>49.03328274474311</v>
+      </c>
+      <c r="R31">
+        <v>441.299544702688</v>
+      </c>
+      <c r="S31">
+        <v>0.004916892365550121</v>
+      </c>
+      <c r="T31">
+        <v>0.004916892365550121</v>
       </c>
     </row>
   </sheetData>
